--- a/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P2C_R1-Habitat-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.9950403424540212</v>
+        <v>-0.9866853881547357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.0218503412050513</v>
+        <v>0.0100547369038732</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>17.28492362052699</v>
+        <v>17.76931065344546</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.3368655798131278</v>
+        <v>-0.4354720948523227</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.9795692450230632</v>
+        <v>-1.181528643179206</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>21.05991588071943</v>
+        <v>21.05609501819015</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.4500097120279282</v>
+        <v>-0.4405331679391825</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.2575227922634896</v>
+        <v>-0.2347758633727784</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>21.23715211236502</v>
+        <v>21.38410841428451</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8788421480064779</v>
+        <v>0.7479496929695352</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.893567610406969</v>
+        <v>2.876670661437662</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>33.22020219024488</v>
+        <v>33.20114259783823</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.08631786999441</v>
+        <v>1.881156154623694</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6471617400458217</v>
+        <v>0.6125719493358286</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>31.952637953164</v>
+        <v>31.761267406099</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.089565488191423</v>
+        <v>1.114180174497449</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.458372098802059</v>
+        <v>1.402886826448919</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>30.25645688190916</v>
+        <v>30.38911176568177</v>
       </c>
     </row>
     <row r="7">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="C8" s="6" t="inlineStr"/>
-      <c r="D8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>-0.4492832645663088</v>
+      </c>
       <c r="E8" s="6" t="n">
-        <v>13.73980226599498</v>
-      </c>
-      <c r="F8" s="6" t="n">
-        <v>-0.7705974944309616</v>
-      </c>
+        <v>12.79657758617065</v>
+      </c>
+      <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>14.81978772013887</v>
+        <v>16.99107290062538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.6627226854049378</v>
+        <v>-0.6603764967562724</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.4891935791160361</v>
+        <v>-0.5429310841978352</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>21.68173207246226</v>
+        <v>22.55953349588997</v>
       </c>
     </row>
     <row r="9">
@@ -815,13 +815,13 @@
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>6.965815567761044</v>
+        <v>7.053112603097758</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>9.011122629860884</v>
+        <v>9.804419723698937</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>201.8343389765292</v>
+        <v>221.3669145399259</v>
       </c>
     </row>
     <row r="10">
@@ -871,31 +871,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.582596409682941</v>
+        <v>-1.730894903774518</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.674685123486206</v>
+        <v>-1.786305641985764</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7.912053457419939</v>
+        <v>7.6948335673575</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.741426620085985</v>
+        <v>-1.987636833319707</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.721140572629258</v>
+        <v>-1.731903799106403</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.22499593804421</v>
+        <v>10.33971436549139</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-1.296153843028792</v>
+        <v>-1.271496016805954</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.143336666355798</v>
+        <v>-1.18594235216092</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>9.987383367053797</v>
+        <v>10.31570222586056</v>
       </c>
     </row>
     <row r="12">
@@ -906,31 +906,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6770883466844455</v>
+        <v>0.5883750921998604</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6316352287580704</v>
+        <v>0.6253304570387576</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>18.93502052224244</v>
+        <v>18.47474284343043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.4792714410001052</v>
+        <v>0.4214491600106851</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6373932451685105</v>
+        <v>0.6962621159000282</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>17.05374013609648</v>
+        <v>17.02360134971001</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3106267807459293</v>
+        <v>0.2909171018550915</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.4015520866357695</v>
+        <v>0.3618263505560793</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>16.09922121501312</v>
+        <v>16.13766643834199</v>
       </c>
     </row>
     <row r="13">
@@ -978,25 +978,25 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>3.960934957665312</v>
+        <v>3.985668705407687</v>
       </c>
       <c r="F14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8883476638142108</v>
+        <v>-0.8517957884852755</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>5.167537947019898</v>
+        <v>5.168813012676803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.8155482539843126</v>
+        <v>-0.8200415936571607</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.8107767641165038</v>
+        <v>-0.7804022050026</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6.37648566510213</v>
+        <v>6.214513665083056</v>
       </c>
     </row>
     <row r="15">
@@ -1009,25 +1009,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>85.34814606008466</v>
+        <v>64.94189662979888</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2.562224655149723</v>
+        <v>1.732692881934442</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.358664910025331</v>
+        <v>1.556665577874497</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>29.58900336089134</v>
+        <v>32.85704414625709</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7769346021228791</v>
+        <v>0.5819589863093906</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9005857894168323</v>
+        <v>1.003679031921996</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>28.38962922298381</v>
+        <v>29.69885683588073</v>
       </c>
     </row>
     <row r="16">
@@ -1057,7 +1057,7 @@
         <v>0.6101669648438139</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>10.69199016573279</v>
+        <v>10.69199016573278</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.7414903219581367</v>
@@ -1077,31 +1077,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4005580199380321</v>
+        <v>0.2079598653336864</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8.414699639363063</v>
+        <v>8.36488313806888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.723513225558179</v>
+        <v>-0.6855613512750501</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.6336436214894779</v>
+        <v>-0.471694586273546</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>6.829181953886843</v>
+        <v>6.934166831361301</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.04615146323424552</v>
+        <v>0.05262937993123976</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.03021904445000819</v>
+        <v>-0.07777098295789527</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>8.903830485456842</v>
+        <v>8.744961865596066</v>
       </c>
     </row>
     <row r="18">
@@ -1112,31 +1112,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.821560315139283</v>
+        <v>2.792544964235662</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.728024176275093</v>
+        <v>1.677755661555634</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>22.0300796821575</v>
+        <v>23.33360123079063</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.688608633570275</v>
+        <v>1.915239173363078</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.010282299710738</v>
+        <v>2.170073717993509</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>15.48603453462421</v>
+        <v>15.25720435725906</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>1.753964866140522</v>
+        <v>1.731988898822861</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.441286239343293</v>
+        <v>1.446868172247613</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>17.13300782404176</v>
+        <v>17.20036110979725</v>
       </c>
     </row>
     <row r="19">
@@ -1177,7 +1177,7 @@
         <v>1.592799160453223</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>33.80737093121286</v>
+        <v>33.80737093121285</v>
       </c>
     </row>
     <row r="20">
@@ -1191,22 +1191,22 @@
       <c r="D20" s="6" t="inlineStr"/>
       <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.7505243132729511</v>
+        <v>-0.7910851323965198</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.7096894028545883</v>
+        <v>-0.7064826669604742</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>4.014384117987864</v>
+        <v>4.398345370611275</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4155666086793028</v>
+        <v>-0.2115016059874342</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4494937625554958</v>
+        <v>-0.4247483930565984</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>9.265515595163802</v>
+        <v>10.96028589097373</v>
       </c>
     </row>
     <row r="21">
@@ -1220,18 +1220,18 @@
       <c r="D21" s="6" t="inlineStr"/>
       <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="inlineStr"/>
-      <c r="G21" s="6" t="inlineStr"/>
+      <c r="G21" s="6" t="n">
+        <v>11.46292142742321</v>
+      </c>
       <c r="H21" s="6" t="n">
-        <v>64.07682204881033</v>
+        <v>58.68329510390978</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>12.85593509965696</v>
-      </c>
-      <c r="J21" s="6" t="n">
-        <v>10.91563674078746</v>
-      </c>
+        <v>15.50892797818618</v>
+      </c>
+      <c r="J21" s="6" t="inlineStr"/>
       <c r="K21" s="6" t="n">
-        <v>137.3827549678346</v>
+        <v>125.5480518254319</v>
       </c>
     </row>
     <row r="22">
@@ -1281,31 +1281,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8617417226873921</v>
+        <v>-0.8664108894838842</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.8659918484213538</v>
+        <v>-0.8012946412870687</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.591056497833145</v>
+        <v>6.363720992816376</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.08850767453806542</v>
+        <v>-0.1376278513570348</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.467194530901171</v>
+        <v>-0.4159588207194474</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>11.91777148598392</v>
+        <v>12.00237180315663</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.2334716491033708</v>
+        <v>-0.09117441108627777</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.3177556113892185</v>
+        <v>-0.3065152103692647</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>10.59595899691102</v>
+        <v>10.64269552002279</v>
       </c>
     </row>
     <row r="24">
@@ -1316,31 +1316,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.772261827533439</v>
+        <v>1.610126412104568</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.57881225416684</v>
+        <v>1.641678341979029</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>16.52894273994602</v>
+        <v>16.22411678403344</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.463205450631604</v>
+        <v>2.25850719245848</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.908793215221271</v>
+        <v>1.860822827069678</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>20.15125506221037</v>
+        <v>20.28815696862501</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>1.557964958404406</v>
+        <v>1.592969797818015</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.410796503296661</v>
+        <v>1.44153674116663</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>17.1748120977881</v>
+        <v>17.08335871800182</v>
       </c>
     </row>
     <row r="25">
@@ -1375,7 +1375,7 @@
         <v>0.6055844795966897</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>17.49153931934114</v>
+        <v>17.49153931934115</v>
       </c>
     </row>
     <row r="26">
@@ -1386,31 +1386,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.7518119468505867</v>
+        <v>-0.7625994741803299</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6828900305286622</v>
+        <v>-0.6912295668370781</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>3.920407488828778</v>
+        <v>3.837065074001029</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2900785113799265</v>
+        <v>-0.2953403904383717</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5099920452026712</v>
+        <v>-0.5174996596688525</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>7.460422265335616</v>
+        <v>7.623708537081646</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2597044532764456</v>
+        <v>-0.2221853144166942</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3828352563437961</v>
+        <v>-0.2987115059387455</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>8.138491640997913</v>
+        <v>7.886197775720165</v>
       </c>
     </row>
     <row r="27">
@@ -1421,31 +1421,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5.392043740079838</v>
+        <v>5.331562976605123</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.146079973477229</v>
+        <v>4.982011951901013</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>46.60660253071452</v>
+        <v>41.12699635359341</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10.06120167160686</v>
+        <v>8.143917899795145</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>9.214330512443379</v>
+        <v>6.977237290752754</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>84.53384468512544</v>
+        <v>90.51193655853766</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.307726374077725</v>
+        <v>3.256317124263988</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.067746531075572</v>
+        <v>3.642289460814841</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>39.66260058835109</v>
+        <v>42.12258115880656</v>
       </c>
     </row>
     <row r="28">
@@ -1484,7 +1484,7 @@
         <v>0.2655326407610934</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>15.33985409794125</v>
+        <v>15.33985409794124</v>
       </c>
     </row>
     <row r="29">
@@ -1495,31 +1495,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.2940955000998414</v>
+        <v>-0.3957363565955724</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.2403341523665647</v>
+        <v>-0.2502145144368265</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11.79013210994644</v>
+        <v>11.49595392828495</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-0.1597510481069401</v>
+        <v>-0.1919303084722246</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.3941683617170077</v>
+        <v>-0.4146097741652835</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>13.77970902552813</v>
+        <v>13.7763144694852</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.1334391123500884</v>
+        <v>-0.1099827042981636</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.1415149070217842</v>
+        <v>-0.1396332263990549</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>13.67141861821443</v>
+        <v>13.67130618814499</v>
       </c>
     </row>
     <row r="30">
@@ -1530,31 +1530,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.8140456167573603</v>
+        <v>0.8029532358798527</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9295234129445801</v>
+        <v>0.9381404531718233</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>17.9616026880671</v>
+        <v>17.75629591237051</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.028319489550226</v>
+        <v>0.9943772076390809</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.7816628469701082</v>
+        <v>0.8132942565230182</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>17.94547116453796</v>
+        <v>17.94573305447521</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.6868398095180601</v>
+        <v>0.711766793572557</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.6727667478766217</v>
+        <v>0.6409710855633979</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.09972031540265</v>
+        <v>17.32113989962305</v>
       </c>
     </row>
     <row r="31">
@@ -1589,7 +1589,7 @@
         <v>0.3885603826697154</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>22.4471822421125</v>
+        <v>22.44718224211249</v>
       </c>
     </row>
     <row r="32">
@@ -1600,31 +1600,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4034350377622306</v>
+        <v>-0.4749156160489939</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.3084300474835581</v>
+        <v>-0.3516270496570418</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>12.57692759001911</v>
+        <v>12.21774238318888</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.187099478723643</v>
+        <v>-0.2220925025165404</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3865845494316672</v>
+        <v>-0.4030398548717902</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>12.35474134591449</v>
+        <v>11.90322831610531</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.1891891788488116</v>
+        <v>-0.1479487047903801</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.1852684808076828</v>
+        <v>-0.1852833884648137</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>14.50472279324404</v>
+        <v>14.59020876968003</v>
       </c>
     </row>
     <row r="33">
@@ -1635,31 +1635,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.456846448427073</v>
+        <v>2.483456835320843</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.782569078111675</v>
+        <v>3.212724658143535</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>58.24348485576279</v>
+        <v>59.51754765288536</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.247898512278176</v>
+        <v>2.075988216556229</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.67045604994945</v>
+        <v>1.525190611865818</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>37.00596365923548</v>
+        <v>38.81488260345774</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.443669397988397</v>
+        <v>1.454653466230185</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.427745357234044</v>
+        <v>1.317754478594245</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>34.72941441598212</v>
+        <v>34.19912208938256</v>
       </c>
     </row>
     <row r="34">
